--- a/Test_files/Data/Rec_Tables/hk.xlsx
+++ b/Test_files/Data/Rec_Tables/hk.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sporleder_M\Synergie\Test_files\Data\Records\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sporleder_M\Synergie\Test_files\Data\Rec_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="hk_1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="84">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>55555</t>
+  </si>
+  <si>
+    <t>__ct2ds__hk</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,6 +1139,9 @@
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1426,7 +1432,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,6 +1461,9 @@
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1744,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,6 +1784,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
